--- a/workforce.xlsx
+++ b/workforce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Local User\Documents\GitHub\Pewlett-Hackard-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB640F47-3525-46FB-8422-0F1CBA2C396F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B09C704-8C35-4E8B-9F93-4B13BC8EDF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43150411-5ED7-420C-B9C7-0A77E7637DE2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Retirement Eligible </t>
   </si>
@@ -69,10 +69,43 @@
     <t>d009</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>Department No.</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Quality Management</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -81,7 +114,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -129,7 +162,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -140,7 +173,68 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -151,6 +245,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B05B50A-F35B-43B9-9FFC-6DA4FA2F0B33}" name="Table1" displayName="Table1" ref="D9:H19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="D9:H19" xr:uid="{6268B4EE-D72E-4045-A52F-20F121D2D98C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9738D731-4924-4439-AF50-569F34EBDE80}" name="Department No."/>
+    <tableColumn id="2" xr3:uid="{71C295FE-D905-41BF-9C0D-96236230A602}" name="Department Name"/>
+    <tableColumn id="3" xr3:uid="{CEC93861-7209-465F-B798-950CF796B999}" name="Total Current Employees" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{F7ECA65C-BE5D-496E-811E-F147A5D02200}" name="Retirement Eligible " dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{F426D058-5594-490A-A796-55BA060F5937}" name="Percentage" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>G10/F10</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,23 +560,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3331594C-64E8-4B31-9523-A3772C4F009C}">
-  <dimension ref="E9:H19"/>
+  <dimension ref="D9:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="D9" sqref="D9:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -475,12 +590,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>14842</v>
@@ -493,9 +611,12 @@
         <v>0.29591699231909446</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>12437</v>
@@ -508,9 +629,12 @@
         <v>0.30224330626356838</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1">
         <v>12898</v>
@@ -523,9 +647,12 @@
         <v>0.30431074585207007</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1">
         <v>53304</v>
@@ -538,9 +665,12 @@
         <v>0.30282905598078941</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1">
         <v>61386</v>
@@ -553,9 +683,12 @@
         <v>0.29922132082233732</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1">
         <v>14546</v>
@@ -568,9 +701,12 @@
         <v>0.30578853293001512</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
         <v>37701</v>
@@ -583,9 +719,12 @@
         <v>0.30068167953104691</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
         <v>15441</v>
@@ -598,9 +737,12 @@
         <v>0.30684541156660838</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>17569</v>
@@ -613,7 +755,10 @@
         <v>0.30280607888895211</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
       <c r="F19" s="1">
         <f>SUM(F10:F18)</f>
         <v>240124</v>
@@ -630,5 +775,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>